--- a/PROTOCOLOS.xlsx
+++ b/PROTOCOLOS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>CODE</t>
   </si>
@@ -53,9 +53,6 @@
     <t>CORE_RESPUESTA_LOGUEO_MOVIL</t>
   </si>
   <si>
-    <t>MOVIL_ENVIAR_ALARMA</t>
-  </si>
-  <si>
     <t>CORE_RESPONDE_ALARMA_MOVIL</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>NOTIFICACIONES</t>
   </si>
   <si>
-    <t>CORE_SOLICITA_CONFIRMACION_I_VISITA_MOVIL</t>
-  </si>
-  <si>
     <t>MOVIL_CONFIRMA_I_VISITA</t>
   </si>
   <si>
@@ -78,13 +72,82 @@
   </si>
   <si>
     <t>PROTOCOLO DE SINCRONIZACION CORE-MOVIL</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>MOVIL</t>
+  </si>
+  <si>
+    <t>EL CORE AVISA NUEVAS ACTUALIZACIONES A LAS TRANCAS</t>
+  </si>
+  <si>
+    <t>CORE_ENVIA_NUEVOS_DATOS_ACTUALIZADOS_CLIENT</t>
+  </si>
+  <si>
+    <t>SINCRONIZACIÓN</t>
+  </si>
+  <si>
+    <t>CORE_ENVIA_ACUSE_CLIENT</t>
+  </si>
+  <si>
+    <t>CORE_AVISA_NUEVAS_ACTUALIZACIONES_CLIENT</t>
+  </si>
+  <si>
+    <t>CLIENT_ENVIA_ID_ACTUALIZACION</t>
+  </si>
+  <si>
+    <t>CLIENT_ENVIA_NUEVOS_DATOS_ACTUALIZADOS</t>
+  </si>
+  <si>
+    <t>CLIENT_LANZA_ALARMA</t>
+  </si>
+  <si>
+    <t>MOVIL_LANZA_ALARMA</t>
+  </si>
+  <si>
+    <t>CORE_RESPONDE_ALARMA_CLIENT</t>
+  </si>
+  <si>
+    <t>CLIENT_CAMBIA_ESTADO</t>
+  </si>
+  <si>
+    <t>ALARMAS QUE SON LANZADAS DESDE EL CLIENT</t>
+  </si>
+  <si>
+    <t>CORE_LANZA_ALARMA_CLIENT</t>
+  </si>
+  <si>
+    <t>CLIENT_NOTIFICA_INGRESO_VISITA</t>
+  </si>
+  <si>
+    <t>CORE_CONFIRMA_RESPUESTA_DE_INGRESO_VISITA_CLIENT</t>
+  </si>
+  <si>
+    <t>CORE_SOLICITA_CONFIRMACION_INGRESO_VISITA_MOVIL</t>
+  </si>
+  <si>
+    <t>CAMBIO DE ESTADOS DE LAS TRANCAS</t>
+  </si>
+  <si>
+    <t>LANZAMIENTOS DE ALARMAS</t>
+  </si>
+  <si>
+    <t>CONFIRMACIONES PARA INGRESO DE VISITAS</t>
+  </si>
+  <si>
+    <t>sincronizacion CLIENT - CORE</t>
+  </si>
+  <si>
+    <t>sincronizacion CORE - CLIENT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,8 +172,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,8 +192,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -264,36 +351,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -301,8 +385,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,154 +723,307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G18"/>
+  <dimension ref="B3:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D18"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="49.140625" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" customWidth="1"/>
     <col min="4" max="4" width="38.140625" customWidth="1"/>
-    <col min="5" max="5" width="55" customWidth="1"/>
-    <col min="6" max="6" width="61.7109375" customWidth="1"/>
+    <col min="5" max="5" width="51.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="58.140625" customWidth="1"/>
+    <col min="8" max="8" width="55.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="F3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>16</v>
+      <c r="D5" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
+      <c r="F5" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="15">
         <v>100</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="9">
+      <c r="F6" s="21">
+        <v>150</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="16">
         <v>1</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="17"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="29">
+        <v>200</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="15">
         <v>101</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="9">
+      <c r="E9" s="31"/>
+      <c r="F9" s="29">
+        <v>151</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="16">
         <v>2</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="14">
+      <c r="E10" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="30">
+        <v>201</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="26"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="17"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="30">
+        <v>152</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="18">
         <v>3</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="17"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="4"/>
+      <c r="F13" s="21">
+        <v>202</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="15">
+        <v>102</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="21">
+        <v>153</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="16">
+        <v>4</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="17"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="4"/>
+      <c r="F16" s="21">
+        <v>203</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="15">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="16">
+        <v>103</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
-        <v>102</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="9">
-        <v>4</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
+      <c r="D18" s="13"/>
+      <c r="F18" s="21">
+        <v>154</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="19">
+        <v>103</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>204</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="19">
         <v>5</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="9">
-        <v>103</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="13"/>
+      <c r="C21" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>155</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="28"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>156</v>
+      </c>
+      <c r="G23" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="11">
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="H13:H14"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="D14:D15"/>
